--- a/model_definition.xlsx
+++ b/model_definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\ODBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4494409B-2EB9-43AC-BB91-C38BF5548261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BA42EC-5E15-46D5-977A-BBC4648F85F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
+    <workbookView xWindow="1698" yWindow="1692" windowWidth="8628" windowHeight="6000" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>Label</t>
   </si>
@@ -161,13 +161,100 @@
   </si>
   <si>
     <t>PPT</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>Formate, ATP, THF</t>
+  </si>
+  <si>
+    <t>10-CHO-THF, ADP</t>
+  </si>
+  <si>
+    <t>5,10-CH-THF,NADPH</t>
+  </si>
+  <si>
+    <t>5,10-CH2-THF, NADP+</t>
+  </si>
+  <si>
+    <t>5,10-CH2-THF, NADH, CO2, NH3</t>
+  </si>
+  <si>
+    <t>Serine, THF</t>
+  </si>
+  <si>
+    <t>Pyruvic acid, NH3</t>
+  </si>
+  <si>
+    <t>Pyruvic acid, CO2, ATP</t>
+  </si>
+  <si>
+    <t>Oxaloacetic acid, ADP</t>
+  </si>
+  <si>
+    <t>Oxaloacetic acid, NADH</t>
+  </si>
+  <si>
+    <t>Malic acid, NAD+</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>Formate, NAD+</t>
+  </si>
+  <si>
+    <t>CO2, NADH</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>Formate, NADP+</t>
+  </si>
+  <si>
+    <t>CO2, NADPH</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +266,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -804,10 +897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26D5D16-1C04-425A-BBDB-1D98A70D3A08}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -826,10 +919,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -841,7 +934,201 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/model_definition.xlsx
+++ b/model_definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\ODBM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex36\Documents\GitHub\ODBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BA42EC-5E15-46D5-977A-BBC4648F85F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB59330B-6273-42C9-80D2-6D27E4E3FF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1698" yWindow="1692" windowWidth="8628" windowHeight="6000" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
   <si>
     <t>Label</t>
   </si>
@@ -193,61 +193,61 @@
     <t>R10</t>
   </si>
   <si>
-    <t>Formate, ATP, THF</t>
-  </si>
-  <si>
-    <t>10-CHO-THF, ADP</t>
-  </si>
-  <si>
-    <t>5,10-CH-THF,NADPH</t>
-  </si>
-  <si>
-    <t>5,10-CH2-THF, NADP+</t>
-  </si>
-  <si>
-    <t>5,10-CH2-THF, NADH, CO2, NH3</t>
-  </si>
-  <si>
-    <t>Serine, THF</t>
-  </si>
-  <si>
-    <t>Pyruvic acid, NH3</t>
-  </si>
-  <si>
-    <t>Pyruvic acid, CO2, ATP</t>
-  </si>
-  <si>
-    <t>Oxaloacetic acid, ADP</t>
-  </si>
-  <si>
-    <t>Oxaloacetic acid, NADH</t>
-  </si>
-  <si>
-    <t>Malic acid, NAD+</t>
-  </si>
-  <si>
     <t>R11</t>
   </si>
   <si>
-    <t>Formate, NAD+</t>
-  </si>
-  <si>
-    <t>CO2, NADH</t>
-  </si>
-  <si>
     <t>R12</t>
   </si>
   <si>
-    <t>Formate, NADP+</t>
-  </si>
-  <si>
-    <t>CO2, NADPH</t>
-  </si>
-  <si>
     <t>R13</t>
   </si>
   <si>
     <t>R14</t>
+  </si>
+  <si>
+    <t>Formate; ATP; THF</t>
+  </si>
+  <si>
+    <t>10-CHO-THF; ADP</t>
+  </si>
+  <si>
+    <t>Serine; THF</t>
+  </si>
+  <si>
+    <t>Pyruvic acid; NH3</t>
+  </si>
+  <si>
+    <t>Pyruvic acid; CO2; ATP</t>
+  </si>
+  <si>
+    <t>Oxaloacetic acid; ADP</t>
+  </si>
+  <si>
+    <t>Oxaloacetic acid; NADH</t>
+  </si>
+  <si>
+    <t>Malic acid; NAD+</t>
+  </si>
+  <si>
+    <t>Formate; NAD+</t>
+  </si>
+  <si>
+    <t>CO2; NADH</t>
+  </si>
+  <si>
+    <t>Formate; NADP+</t>
+  </si>
+  <si>
+    <t>CO2; NADPH</t>
+  </si>
+  <si>
+    <t>5,10-CH-THF;NADPH</t>
+  </si>
+  <si>
+    <t>5,10-CH2-THF; NADH; CO2; NH3</t>
+  </si>
+  <si>
+    <t>5,10-CH2-THF; NADP+</t>
   </si>
 </sst>
 </file>
@@ -625,12 +625,12 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.578125" customWidth="1"/>
+    <col min="1" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -649,7 +649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -657,7 +657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -665,7 +665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -681,7 +681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -689,7 +689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -697,7 +697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -705,7 +705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -713,7 +713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -721,7 +721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -737,7 +737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -745,7 +745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -753,7 +753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -761,7 +761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -769,7 +769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -777,7 +777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -785,7 +785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -793,7 +793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -899,16 +899,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26D5D16-1C04-425A-BBDB-1D98A70D3A08}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="15.578125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
+    <col min="5" max="7" width="15.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,7 +936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -948,7 +950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -956,13 +958,13 @@
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -976,7 +978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -984,13 +986,13 @@
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -998,13 +1000,13 @@
         <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1012,13 +1014,13 @@
         <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1029,10 +1031,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1043,10 +1045,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1054,13 +1056,13 @@
         <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1068,15 +1070,15 @@
         <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>30</v>
@@ -1088,23 +1090,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>41</v>
@@ -1116,9 +1118,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>24</v>

--- a/model_definition.xlsx
+++ b/model_definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex36\Documents\GitHub\ODBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB59330B-6273-42C9-80D2-6D27E4E3FF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E07AAA0-E95E-4B7E-BEC0-F270F1EB4937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>5,10-CH-THF</t>
   </si>
   <si>
-    <t>h,10-CH2-THF</t>
-  </si>
-  <si>
     <t>THF</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>5,10-CH2-THF; NADP+</t>
+  </si>
+  <si>
+    <t>5,10-CH2-THF</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +675,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -900,7 +900,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,6 +908,7 @@
     <col min="2" max="3" width="15.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
     <col min="5" max="7" width="15.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -938,10 +939,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -952,24 +953,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -980,156 +981,156 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/model_definition.xlsx
+++ b/model_definition.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex36\Documents\GitHub\ODBM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\ODBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E07AAA0-E95E-4B7E-BEC0-F270F1EB4937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B550C-6EFA-4F3A-A0A3-7E83DF39E76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
+    <workbookView xWindow="10905" yWindow="5130" windowWidth="20295" windowHeight="14085" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="1" r:id="rId1"/>
     <sheet name="Reaction" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
   <si>
     <t>Label</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>5,10-CH2-THF</t>
+  </si>
+  <si>
+    <t>PPT_DNA</t>
+  </si>
+  <si>
+    <t>DNA</t>
   </si>
 </sst>
 </file>
@@ -619,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F5D3CC-A58A-4494-9B3C-2BFA219AC7F3}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="104" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,6 +654,9 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -656,6 +665,9 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -664,6 +676,9 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -672,6 +687,9 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -680,6 +698,9 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -688,6 +709,9 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -696,6 +720,9 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -704,6 +731,9 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -712,6 +742,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -720,6 +753,9 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -728,6 +764,9 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -736,6 +775,9 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -744,6 +786,9 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -752,6 +797,9 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -760,133 +808,195 @@
       <c r="B16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26D5D16-1C04-425A-BBDB-1D98A70D3A08}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/model_definition.xlsx
+++ b/model_definition.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\ODBM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex36\Documents\GitHub\ODBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B550C-6EFA-4F3A-A0A3-7E83DF39E76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03ACE7A-8E32-4EC6-87AA-AAC3C0DAE601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="5130" windowWidth="20295" windowHeight="14085" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="1" r:id="rId1"/>
     <sheet name="Reaction" sheetId="3" r:id="rId2"/>
+    <sheet name="Mechanism Legend" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>Label</t>
   </si>
@@ -254,6 +255,12 @@
   </si>
   <si>
     <t>DNA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>4 Serine</t>
   </si>
 </sst>
 </file>
@@ -627,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F5D3CC-A58A-4494-9B3C-2BFA219AC7F3}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="104" workbookViewId="0">
+    <sheetView zoomScale="104" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -1009,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26D5D16-1C04-425A-BBDB-1D98A70D3A08}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,11 +1061,20 @@
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1068,11 +1084,20 @@
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1082,11 +1107,20 @@
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1096,11 +1130,20 @@
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1110,11 +1153,20 @@
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1124,11 +1176,20 @@
       <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1138,11 +1199,20 @@
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1152,11 +1222,20 @@
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>58</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1166,11 +1245,20 @@
       <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1180,11 +1268,20 @@
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1194,11 +1291,20 @@
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1208,11 +1314,20 @@
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>66</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1222,11 +1337,20 @@
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1236,15 +1360,38 @@
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29F2506-6CCF-4DC4-9A74-8C4B207C7DA6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/model_definition.xlsx
+++ b/model_definition.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex36\Documents\GitHub\ODBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03ACE7A-8E32-4EC6-87AA-AAC3C0DAE601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEFFED1-1500-4E0D-8170-A4C59D6DA8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
   </bookViews>
   <sheets>
-    <sheet name="Species" sheetId="1" r:id="rId1"/>
+    <sheet name="Species &amp; Base Mechanisms" sheetId="1" r:id="rId1"/>
     <sheet name="Reaction" sheetId="3" r:id="rId2"/>
     <sheet name="Mechanism Legend" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
   <si>
     <t>Label</t>
   </si>
@@ -191,18 +191,6 @@
     <t>R10</t>
   </si>
   <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
     <t>Formate; ATP; THF</t>
   </si>
   <si>
@@ -227,18 +215,6 @@
     <t>Malic acid; NAD+</t>
   </si>
   <si>
-    <t>Formate; NAD+</t>
-  </si>
-  <si>
-    <t>CO2; NADH</t>
-  </si>
-  <si>
-    <t>Formate; NADP+</t>
-  </si>
-  <si>
-    <t>CO2; NADPH</t>
-  </si>
-  <si>
     <t>5,10-CH-THF;NADPH</t>
   </si>
   <si>
@@ -260,7 +236,19 @@
     <t>MA</t>
   </si>
   <si>
-    <t>4 Serine</t>
+    <t>Mechanisms</t>
+  </si>
+  <si>
+    <t>deg?</t>
+  </si>
+  <si>
+    <t>TX1; TL1</t>
+  </si>
+  <si>
+    <t>5; 5</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -310,13 +298,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,29 +626,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F5D3CC-A58A-4494-9B3C-2BFA219AC7F3}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -664,8 +673,11 @@
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -676,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -687,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -698,9 +710,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -709,7 +721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -720,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -731,7 +743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -742,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -753,7 +765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -764,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -775,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -786,7 +798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -797,7 +809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -808,7 +820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -995,15 +1007,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C33">
         <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1014,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26D5D16-1C04-425A-BBDB-1D98A70D3A08}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:F16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1080,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1085,13 +1103,13 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -1108,7 +1126,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -1131,13 +1149,13 @@
         <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1154,10 +1172,10 @@
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -1177,10 +1195,10 @@
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -1200,13 +1218,13 @@
         <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -1223,13 +1241,13 @@
         <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1246,13 +1264,13 @@
         <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -1269,110 +1287,18 @@
         <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1387,7 +1313,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/model_definition.xlsx
+++ b/model_definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex36\Documents\GitHub\ODBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEFFED1-1500-4E0D-8170-A4C59D6DA8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5767B1FC-1AEC-4DF0-BC50-012C82497874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t>Label</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>MM</t>
+  </si>
+  <si>
+    <t>OBB</t>
   </si>
 </sst>
 </file>
@@ -1278,6 +1281,9 @@
       <c r="G10" s="2">
         <v>2</v>
       </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1287,7 +1293,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>57</v>
@@ -1300,6 +1306,9 @@
       </c>
       <c r="G11" s="2">
         <v>2</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/model_definition.xlsx
+++ b/model_definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex36\Documents\GitHub\ODBM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\ODBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5767B1FC-1AEC-4DF0-BC50-012C82497874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA9EC37-6155-4CCE-BCF7-EB099C4CE63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
+    <workbookView xWindow="10905" yWindow="5130" windowWidth="20295" windowHeight="14085" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
   </bookViews>
   <sheets>
     <sheet name="Species &amp; Base Mechanisms" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
   <si>
     <t>Label</t>
   </si>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>OBB</t>
+  </si>
+  <si>
+    <t>kcat:10;Km:50</t>
+  </si>
+  <si>
+    <t>kcat:10;Km1:50;Km2:50</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>k:1</t>
   </si>
 </sst>
 </file>
@@ -1038,14 +1050,16 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="15.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="7" width="15.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1066,14 +1080,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1091,11 +1101,8 @@
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2</v>
+      <c r="F2" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1114,11 +1121,8 @@
       <c r="E3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2</v>
+      <c r="F3" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1137,11 +1141,8 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2</v>
+      <c r="F4" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1160,11 +1161,8 @@
       <c r="E5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2</v>
+      <c r="F5" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1183,11 +1181,8 @@
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
+      <c r="F6" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1206,11 +1201,8 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2</v>
+      <c r="F7" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1229,11 +1221,8 @@
       <c r="E8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
+      <c r="F8" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1252,11 +1241,8 @@
       <c r="E9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2</v>
+      <c r="F9" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1275,14 +1261,8 @@
       <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
+      <c r="F10" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1301,14 +1281,8 @@
       <c r="E11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
+      <c r="F11" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/model_definition.xlsx
+++ b/model_definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\ODBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA9EC37-6155-4CCE-BCF7-EB099C4CE63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEDC197-3C41-43CC-ADE3-B0E93C967C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="5130" windowWidth="20295" windowHeight="14085" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
+    <workbookView xWindow="6495" yWindow="5400" windowWidth="26520" windowHeight="14085" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
   </bookViews>
   <sheets>
     <sheet name="Species &amp; Base Mechanisms" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>Label</t>
   </si>
@@ -170,36 +170,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>Formate; ATP; THF</t>
-  </si>
-  <si>
-    <t>10-CHO-THF; ADP</t>
-  </si>
-  <si>
-    <t>Serine; THF</t>
-  </si>
-  <si>
     <t>Pyruvic acid; NH3</t>
   </si>
   <si>
@@ -215,15 +185,6 @@
     <t>Malic acid; NAD+</t>
   </si>
   <si>
-    <t>5,10-CH-THF;NADPH</t>
-  </si>
-  <si>
-    <t>5,10-CH2-THF; NADH; CO2; NH3</t>
-  </si>
-  <si>
-    <t>5,10-CH2-THF; NADP+</t>
-  </si>
-  <si>
     <t>5,10-CH2-THF</t>
   </si>
   <si>
@@ -233,9 +194,6 @@
     <t>DNA</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
     <t>Mechanisms</t>
   </si>
   <si>
@@ -263,7 +221,7 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>k:1</t>
+    <t>MM; CI</t>
   </si>
 </sst>
 </file>
@@ -666,7 +624,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -689,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -727,7 +685,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1024,19 +982,19 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1047,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26D5D16-1C04-425A-BBDB-1D98A70D3A08}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C8" sqref="C8:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1090,19 +1048,19 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1110,19 +1068,19 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1130,159 +1088,19 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/model_definition.xlsx
+++ b/model_definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\ODBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEDC197-3C41-43CC-ADE3-B0E93C967C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89713C7C-C169-4056-82E9-3518407F2A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="5400" windowWidth="26520" windowHeight="14085" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
+    <workbookView xWindow="10905" yWindow="5130" windowWidth="20295" windowHeight="14085" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
   </bookViews>
   <sheets>
     <sheet name="Species &amp; Base Mechanisms" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>Label</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Product</t>
   </si>
   <si>
-    <t>Reactant</t>
-  </si>
-  <si>
     <t>Mechanism</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>Pyruvic acid; NH3</t>
   </si>
   <si>
-    <t>Pyruvic acid; CO2; ATP</t>
-  </si>
-  <si>
     <t>Oxaloacetic acid; ADP</t>
   </si>
   <si>
@@ -215,13 +209,19 @@
     <t>kcat:10;Km:50</t>
   </si>
   <si>
-    <t>kcat:10;Km1:50;Km2:50</t>
-  </si>
-  <si>
     <t>Parameters</t>
   </si>
   <si>
-    <t>MM; CI</t>
+    <t>kcat:10;Km1:50;Km2:50;K:4</t>
+  </si>
+  <si>
+    <t>Substrate</t>
+  </si>
+  <si>
+    <t>Cofactor</t>
+  </si>
+  <si>
+    <t>Pyruvic acid; CO2</t>
   </si>
 </sst>
 </file>
@@ -618,44 +618,44 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -674,10 +674,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -696,10 +696,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -707,10 +707,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -718,10 +718,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -773,10 +773,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -839,10 +839,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -982,19 +982,19 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1005,23 +1005,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26D5D16-1C04-425A-BBDB-1D98A70D3A08}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="15.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="44.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,78 +1030,84 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>59</v>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
